--- a/config/excel/CollectionBox.xlsx
+++ b/config/excel/CollectionBox.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -31,16 +31,34 @@
     <t>可放置收集品数</t>
   </si>
   <si>
-    <t>激活评分</t>
-  </si>
-  <si>
-    <t>评分效果</t>
+    <t>激活评分分段1</t>
+  </si>
+  <si>
+    <t>激活评分分段2</t>
+  </si>
+  <si>
+    <t>激活评分分段3</t>
+  </si>
+  <si>
+    <t>激活评分分段</t>
+  </si>
+  <si>
+    <t>评分分段效果1</t>
+  </si>
+  <si>
+    <t>评分分段效果2</t>
+  </si>
+  <si>
+    <t>评分分段效果3</t>
+  </si>
+  <si>
+    <t>评分分段效果</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>待定</t>
+    <t>此列由前3列自动生成，不用填写</t>
   </si>
   <si>
     <t>导出字段</t>
@@ -55,10 +73,10 @@
     <t>maxSlot</t>
   </si>
   <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>effect</t>
+    <t>scores</t>
+  </si>
+  <si>
+    <t>effects</t>
   </si>
   <si>
     <t>字段描述</t>
@@ -83,6 +101,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>[]int32</t>
   </si>
   <si>
     <t>爬塔收集品放置</t>
@@ -98,7 +119,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +149,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -279,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +327,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,7 +530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -536,6 +587,34 @@
       </top>
       <bottom style="thin">
         <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,152 +719,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -816,6 +895,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -879,14 +973,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:G7" totalsRowShown="0">
-  <autoFilter ref="C1:G7"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:M7" totalsRowShown="0">
+  <autoFilter ref="C1:M7"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="收集放置id"/>
     <tableColumn id="2" name="名字"/>
     <tableColumn id="3" name="可放置收集品数"/>
-    <tableColumn id="4" name="激活评分"/>
-    <tableColumn id="5" name="评分效果"/>
+    <tableColumn id="4" name="激活评分分段1"/>
+    <tableColumn id="5" name="激活评分分段2"/>
+    <tableColumn id="6" name="激活评分分段3"/>
+    <tableColumn id="7" name="激活评分分段"/>
+    <tableColumn id="8" name="评分分段效果1"/>
+    <tableColumn id="9" name="评分分段效果2"/>
+    <tableColumn id="10" name="评分分段效果3"/>
+    <tableColumn id="11" name="评分分段效果"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1150,26 +1250,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="21.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="13.7142857142857" style="1" customWidth="1"/>
     <col min="4" max="5" width="16.3571428571429" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.71428571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1428571428571" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.2142857142857" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.8571428571429" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1428571428571" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.8125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4" spans="1:7">
+    <row r="1" ht="14.4" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1191,46 +1296,78 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:7">
+    <row r="2" ht="29" spans="1:13">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
-        <v>8</v>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" ht="14.4" spans="2:7">
+    <row r="3" ht="14.4" spans="2:13">
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" ht="14.4" spans="2:7">
+    <row r="4" ht="14.4" spans="2:13">
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>3</v>
@@ -1242,48 +1379,78 @@
         <v>5</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" ht="14.4" spans="2:7">
+    <row r="5" ht="14.4" spans="2:13">
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
     </row>
-    <row r="6" ht="14.4" spans="2:7">
+    <row r="6" ht="14.4" spans="2:13">
       <c r="B6" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="7" ht="14.4" spans="2:7">
+    <row r="7" ht="14.4" spans="2:13">
       <c r="B7" s="8"/>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E7" s="7">
         <v>3</v>
@@ -1292,7 +1459,27 @@
         <v>3000</v>
       </c>
       <c r="G7" s="7">
+        <v>6000</v>
+      </c>
+      <c r="H7" s="7">
+        <v>9000</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f>F7&amp;","&amp;G7&amp;","&amp;H7</f>
+        <v>3000,6000,9000</v>
+      </c>
+      <c r="J7" s="15">
         <v>1</v>
+      </c>
+      <c r="K7" s="15">
+        <v>1</v>
+      </c>
+      <c r="L7" s="15">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7" t="str">
+        <f>J7&amp;","&amp;K7&amp;","&amp;L7</f>
+        <v>1,1,1</v>
       </c>
     </row>
   </sheetData>
